--- a/Mifos Automation Excels/Client/3506-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-DISBURSE-FEE-%APR-AMT-AddThirdTranche-LoanTranche.xlsx
+++ b/Mifos Automation Excels/Client/3506-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-DISBURSE-FEE-%APR-AMT-AddThirdTranche-LoanTranche.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Loan Tranche Details" sheetId="9" r:id="rId1"/>
@@ -133,13 +128,13 @@
     <t>verifytranche</t>
   </si>
   <si>
-    <t>field is required</t>
+    <t>Sum of multi disburse amounts must be less than or equal to approved principal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -189,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,7 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,26 +310,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,23 +345,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -1531,21 +1491,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" t="s">
         <v>36</v>
       </c>
     </row>
